--- a/backend/resource/libot_4.xlsx
+++ b/backend/resource/libot_4.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28120" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28300" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="room" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">room!$A$1:$F$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">room!$A$1:$I$10</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -30,42 +30,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
   <si>
     <t>总馆北区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>总馆北区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南，东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北，东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西，南，东南</t>
-    <rPh sb="4" eb="5">
-      <t>d</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西，北，东北</t>
-    <rPh sb="5" eb="6">
-      <t>bei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北，南</t>
-    <rPh sb="2" eb="3">
-      <t>nan</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -304,10 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>350_350</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>400_600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -335,10 +302,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>150_550_550</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中心圆台西侧，中心圆台南侧，中心圆台北侧</t>
     <rPh sb="4" eb="5">
       <t>xi</t>
@@ -349,10 +312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>200_200_200_300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>拐角，中心圆台南侧，中心圆台东侧，中心圆台西侧</t>
     <rPh sb="14" eb="15">
       <t>dong</t>
@@ -364,6 +323,244 @@
   </si>
   <si>
     <t>50_100_250_250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横坐标</t>
+    <rPh sb="0" eb="1">
+      <t>heng</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zuo biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵坐标</t>
+    <rPh sb="0" eb="1">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zuo biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始坐标</t>
+    <rPh sb="0" eb="1">
+      <t>qi shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zuo biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>432；543</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>280；372</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>372；411</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>432；123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>411；123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>370，370；1；1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>543，604；1；1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250，100_100，250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西南；无；无</t>
+    <rPh sb="0" eb="1">
+      <t>xi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>nan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南；东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北；东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西；北；东北</t>
+    <rPh sb="5" eb="6">
+      <t>bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北；南</t>
+    <rPh sb="2" eb="3">
+      <t>nan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北西；北；西</t>
+    <rPh sb="1" eb="2">
+      <t>xi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北；北</t>
+    <rPh sb="0" eb="1">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无；无；无；无</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东；南；南；南</t>
+    <rPh sb="0" eb="1">
+      <t>dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>nan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东；东；东</t>
+    <rPh sb="0" eb="1">
+      <t>dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南</t>
+    <rPh sb="0" eb="1">
+      <t>nan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北东；南东；东南；西</t>
+    <rPh sb="0" eb="1">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100，100_100，100_200_300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50，100_550_550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>267；267</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>407；407</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>267；267；267；267</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>407；407；407；407</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>267；267；267</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>407；407；407；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200_200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>280；333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>129；136</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,7 +568,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +606,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF6A8759"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -434,12 +637,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -721,317 +926,452 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="40.5" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" customWidth="1"/>
+    <col min="7" max="7" width="40.5" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="I8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>13</v>
       </c>
       <c r="B9">
         <v>400</v>
       </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9">
+        <v>267</v>
+      </c>
+      <c r="E9">
+        <v>407</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
         <v>18</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
         <v>48</v>
       </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F10"/>
+  <autoFilter ref="A1:I10"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
